--- a/Data Prolanis.xlsx
+++ b/Data Prolanis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>PROLANIS</t>
   </si>
@@ -83,145 +83,43 @@
     <t>KETERANGAN</t>
   </si>
   <si>
+    <t xml:space="preserve">m, bsdkmbf </t>
+  </si>
+  <si>
+    <t>0085-06-05</t>
+  </si>
+  <si>
+    <t>25-05-2023</t>
+  </si>
+  <si>
+    <t>,msn dkj</t>
+  </si>
+  <si>
+    <t>0005-08-06</t>
+  </si>
+  <si>
+    <t>25-11-2023</t>
+  </si>
+  <si>
     <t>sam'ani</t>
   </si>
   <si>
-    <t>0067-08-09</t>
-  </si>
-  <si>
-    <t>jbasj</t>
-  </si>
-  <si>
-    <t>bkhj</t>
-  </si>
-  <si>
-    <t>jbjkb</t>
+    <t>0056-07-08</t>
+  </si>
+  <si>
+    <t>jbsjdk</t>
+  </si>
+  <si>
+    <t>jgbjk</t>
+  </si>
+  <si>
+    <t>0045-07-06</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
   <si>
     <t>24-05-2023</t>
-  </si>
-  <si>
-    <t>jkb</t>
-  </si>
-  <si>
-    <t>jk</t>
-  </si>
-  <si>
-    <t>bkj</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>hv</t>
-  </si>
-  <si>
-    <t>hjkvk</t>
-  </si>
-  <si>
-    <t>24-11-2023</t>
-  </si>
-  <si>
-    <t>jhvbjkl</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Sai'dah</t>
-  </si>
-  <si>
-    <t>hjkhbaskjd</t>
-  </si>
-  <si>
-    <t>0008-05-06</t>
-  </si>
-  <si>
-    <t>bnlj</t>
-  </si>
-  <si>
-    <t>bjk</t>
-  </si>
-  <si>
-    <t>bjl</t>
-  </si>
-  <si>
-    <t>njk</t>
-  </si>
-  <si>
-    <t>bkh</t>
-  </si>
-  <si>
-    <t>bhk</t>
-  </si>
-  <si>
-    <t>bhjk</t>
-  </si>
-  <si>
-    <t>vbhkj</t>
-  </si>
-  <si>
-    <t>asdbjk</t>
-  </si>
-  <si>
-    <t>0077-07-06</t>
-  </si>
-  <si>
-    <t>hgjv</t>
-  </si>
-  <si>
-    <t>ghkjb</t>
-  </si>
-  <si>
-    <t>hkjbv</t>
-  </si>
-  <si>
-    <t>jhvh</t>
-  </si>
-  <si>
-    <t>vhj</t>
-  </si>
-  <si>
-    <t>vhjk</t>
-  </si>
-  <si>
-    <t>23-05-2023</t>
-  </si>
-  <si>
-    <t>vhkj</t>
-  </si>
-  <si>
-    <t>kjb</t>
-  </si>
-  <si>
-    <t>jb</t>
-  </si>
-  <si>
-    <t>jkgb</t>
-  </si>
-  <si>
-    <t>kjhvb</t>
-  </si>
-  <si>
-    <t>hjv</t>
-  </si>
-  <si>
-    <t>hjvh</t>
-  </si>
-  <si>
-    <t>yhgv</t>
-  </si>
-  <si>
-    <t>hjkvbk</t>
-  </si>
-  <si>
-    <t>hb</t>
-  </si>
-  <si>
-    <t>khjb</t>
-  </si>
-  <si>
-    <t>jklbjkl</t>
   </si>
 </sst>
 </file>
@@ -310,10 +208,10 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -721,191 +619,191 @@
         <v>22</v>
       </c>
       <c r="C4" s="3">
-        <v>8967796</v>
+        <v>587</v>
       </c>
       <c r="D4" s="3">
-        <v>7896</v>
+        <v>578</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="3">
+        <v>67</v>
+      </c>
+      <c r="G4" s="3">
+        <v>567</v>
+      </c>
+      <c r="H4" s="3">
+        <v>567</v>
+      </c>
+      <c r="I4" s="3">
+        <v>54</v>
+      </c>
+      <c r="J4" s="3">
+        <v>45765</v>
+      </c>
+      <c r="K4" s="3">
+        <v>45</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="3">
-        <v>685</v>
-      </c>
-      <c r="H4" s="3">
-        <v>867</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="3">
-        <v>7865</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>33</v>
+      <c r="M4" s="3">
+        <v>4567</v>
+      </c>
+      <c r="N4" s="3">
+        <v>456</v>
+      </c>
+      <c r="O4" s="3">
+        <v>4</v>
+      </c>
+      <c r="P4" s="3">
+        <v>574</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>574</v>
+      </c>
+      <c r="R4" s="3">
+        <v>74</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="T4" s="3">
+        <v>57</v>
+      </c>
+      <c r="U4" s="3">
+        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="3">
-        <v>5687</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="3">
-        <v>65</v>
-      </c>
-      <c r="G5" s="3">
-        <v>100</v>
-      </c>
-      <c r="H5" s="3">
-        <v>100</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4">
+        <v>876</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8756</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4">
+        <v>65867</v>
+      </c>
+      <c r="G5" s="4">
+        <v>876</v>
+      </c>
+      <c r="H5" s="4">
+        <v>857</v>
+      </c>
+      <c r="I5" s="4">
+        <v>5674</v>
+      </c>
+      <c r="J5" s="4">
+        <v>6785</v>
+      </c>
+      <c r="K5" s="4">
+        <v>6754</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="4">
+        <v>674</v>
+      </c>
+      <c r="N5" s="4">
+        <v>5764</v>
+      </c>
+      <c r="O5" s="4">
+        <v>564</v>
+      </c>
+      <c r="P5" s="4">
+        <v>7564</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>4</v>
+      </c>
+      <c r="R5" s="4">
+        <v>7854</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="4">
+        <v>865</v>
+      </c>
+      <c r="U5" s="4">
         <v>8</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="3">
-        <v>5687</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="3">
-        <v>65</v>
-      </c>
-      <c r="G6" s="3">
-        <v>12</v>
-      </c>
-      <c r="H6" s="3">
-        <v>12</v>
-      </c>
-      <c r="I6" s="3">
-        <v>78</v>
-      </c>
-      <c r="J6" s="3">
-        <v>5867</v>
-      </c>
-      <c r="K6" s="3">
-        <v>585</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4">
+        <v>78528173</v>
+      </c>
+      <c r="D6" s="4">
+        <v>78568</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="4">
+        <v>765</v>
+      </c>
+      <c r="H6" s="4">
+        <v>656</v>
+      </c>
+      <c r="I6" s="4">
+        <v>4678</v>
+      </c>
+      <c r="J6" s="4">
+        <v>567</v>
+      </c>
+      <c r="K6" s="4">
+        <v>4567</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="4">
+        <v>456</v>
+      </c>
+      <c r="N6" s="4">
+        <v>4</v>
+      </c>
+      <c r="O6" s="4">
+        <v>576476</v>
+      </c>
+      <c r="P6" s="4">
+        <v>546</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>74</v>
+      </c>
+      <c r="R6" s="4">
+        <v>754</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="3">
-        <v>89756</v>
-      </c>
-      <c r="N6" s="3">
-        <v>785</v>
-      </c>
-      <c r="O6" s="3">
-        <v>9</v>
-      </c>
-      <c r="P6" s="3">
-        <v>976</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>876</v>
-      </c>
-      <c r="R6" s="3">
-        <v>87</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" s="3">
-        <v>5867</v>
-      </c>
-      <c r="U6" s="3">
-        <v>5</v>
+      <c r="T6" s="4">
+        <v>564</v>
+      </c>
+      <c r="U6" s="4">
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -913,64 +811,64 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4">
-        <v>58</v>
+        <v>576</v>
       </c>
       <c r="D7" s="4">
+        <v>7865</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="4">
         <v>675</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="4">
-        <v>8675</v>
-      </c>
       <c r="G7" s="4">
-        <v>11</v>
+        <v>896</v>
       </c>
       <c r="H7" s="4">
-        <v>11</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>50</v>
+        <v>768</v>
+      </c>
+      <c r="I7" s="4">
+        <v>675</v>
       </c>
       <c r="J7" s="4">
-        <v>6875</v>
+        <v>765</v>
       </c>
       <c r="K7" s="4">
-        <v>675867</v>
+        <v>5</v>
       </c>
       <c r="L7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="4">
+        <v>7</v>
+      </c>
+      <c r="N7" s="4">
+        <v>57</v>
+      </c>
+      <c r="O7" s="4">
+        <v>65</v>
+      </c>
+      <c r="P7" s="4">
+        <v>765</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>67</v>
+      </c>
+      <c r="R7" s="4">
+        <v>576</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>31</v>
+      <c r="T7" s="4">
+        <v>576</v>
+      </c>
+      <c r="U7" s="4">
+        <v>7645</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -978,129 +876,129 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="C8" s="4">
+        <v>576</v>
       </c>
       <c r="D8" s="4">
-        <v>5687</v>
+        <v>7865</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F8" s="4">
-        <v>65</v>
+        <v>675</v>
       </c>
       <c r="G8" s="4">
-        <v>879</v>
+        <v>675</v>
       </c>
       <c r="H8" s="4">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="J8" s="4">
-        <v>7</v>
+        <v>4765</v>
       </c>
       <c r="K8" s="4">
-        <v>67</v>
+        <v>6785</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>62</v>
+        <v>24</v>
+      </c>
+      <c r="M8" s="4">
+        <v>6785</v>
+      </c>
+      <c r="N8" s="4">
+        <v>687</v>
+      </c>
+      <c r="O8" s="4">
+        <v>86</v>
+      </c>
+      <c r="P8" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>6875</v>
+      </c>
+      <c r="R8" s="4">
+        <v>76</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>63</v>
+        <v>34</v>
+      </c>
+      <c r="T8" s="4">
+        <v>578</v>
+      </c>
+      <c r="U8" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4">
+        <v>78528173</v>
+      </c>
+      <c r="D9" s="4">
+        <v>78568</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="4">
+        <v>809</v>
+      </c>
+      <c r="H9" s="4">
+        <v>867</v>
+      </c>
+      <c r="I9" s="4">
         <v>58</v>
       </c>
-      <c r="D9" s="3">
-        <v>675</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="3">
-        <v>8675</v>
-      </c>
-      <c r="G9" s="3">
-        <v>76</v>
-      </c>
-      <c r="H9" s="3">
-        <v>23</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="J9" s="4">
+        <v>875</v>
+      </c>
+      <c r="K9" s="4">
+        <v>685</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="4">
+        <v>685</v>
+      </c>
+      <c r="N9" s="4">
+        <v>87</v>
+      </c>
+      <c r="O9" s="4">
+        <v>578</v>
+      </c>
+      <c r="P9" s="4">
         <v>5</v>
       </c>
-      <c r="J9" s="3">
-        <v>587</v>
-      </c>
-      <c r="K9" s="3">
-        <v>5687</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="3">
-        <v>567</v>
-      </c>
-      <c r="N9" s="3">
-        <v>567</v>
-      </c>
-      <c r="O9" s="3">
-        <v>5687</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>68</v>
+      <c r="Q9" s="4">
+        <v>5</v>
+      </c>
+      <c r="R9" s="4">
+        <v>78</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="4">
+        <v>785</v>
+      </c>
+      <c r="U9" s="4">
+        <v>5678</v>
       </c>
     </row>
   </sheetData>

--- a/Data Prolanis.xlsx
+++ b/Data Prolanis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>PROLANIS</t>
   </si>
@@ -68,6 +68,9 @@
     <t>HDL</t>
   </si>
   <si>
+    <t>HbA1C</t>
+  </si>
+  <si>
     <t>TRIGLISERIDA</t>
   </si>
   <si>
@@ -83,43 +86,61 @@
     <t>KETERANGAN</t>
   </si>
   <si>
-    <t xml:space="preserve">m, bsdkmbf </t>
-  </si>
-  <si>
-    <t>0085-06-05</t>
-  </si>
-  <si>
-    <t>25-05-2023</t>
-  </si>
-  <si>
-    <t>,msn dkj</t>
-  </si>
-  <si>
-    <t>0005-08-06</t>
-  </si>
-  <si>
-    <t>25-11-2023</t>
-  </si>
-  <si>
     <t>sam'ani</t>
   </si>
   <si>
+    <t>0046-07-06</t>
+  </si>
+  <si>
+    <t>sdvbjksd</t>
+  </si>
+  <si>
+    <t>28-05-2023</t>
+  </si>
+  <si>
+    <t>2023-02-28</t>
+  </si>
+  <si>
+    <t>Terkontroller</t>
+  </si>
+  <si>
+    <t>shjbdvahkj</t>
+  </si>
+  <si>
     <t>0056-07-08</t>
   </si>
   <si>
-    <t>jbsjdk</t>
-  </si>
-  <si>
-    <t>jgbjk</t>
-  </si>
-  <si>
-    <t>0045-07-06</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>24-05-2023</t>
+    <t>2023-05-22</t>
+  </si>
+  <si>
+    <t>2023-05-23</t>
+  </si>
+  <si>
+    <t>jksbndkjl</t>
+  </si>
+  <si>
+    <t>0758-08-05</t>
+  </si>
+  <si>
+    <t>hjkvbshjkd</t>
+  </si>
+  <si>
+    <t>2023-10-12</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
+    <t>Tidak Terkontroller</t>
+  </si>
+  <si>
+    <t>2023-11-24</t>
+  </si>
+  <si>
+    <t>2023-11-28</t>
   </si>
 </sst>
 </file>
@@ -513,15 +534,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="18.9954" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,7 +567,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -610,396 +631,433 @@
       <c r="U3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3">
-        <v>587</v>
+        <v>756924738698</v>
       </c>
       <c r="D4" s="3">
-        <v>578</v>
+        <v>756785</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3">
-        <v>67</v>
-      </c>
-      <c r="G4" s="3">
-        <v>567</v>
-      </c>
-      <c r="H4" s="3">
-        <v>567</v>
-      </c>
-      <c r="I4" s="3">
-        <v>54</v>
-      </c>
-      <c r="J4" s="3">
-        <v>45765</v>
-      </c>
-      <c r="K4" s="3">
-        <v>45</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="3">
-        <v>4567</v>
-      </c>
-      <c r="N4" s="3">
-        <v>456</v>
-      </c>
-      <c r="O4" s="3">
-        <v>4</v>
-      </c>
-      <c r="P4" s="3">
-        <v>574</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>574</v>
-      </c>
-      <c r="R4" s="3">
-        <v>74</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" s="3">
-        <v>57</v>
-      </c>
-      <c r="U4" s="3">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="4">
+        <v>26</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4">
-        <v>876</v>
-      </c>
-      <c r="D5" s="4">
-        <v>8756</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8657865</v>
+      </c>
+      <c r="D5" s="3">
+        <v>875</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3">
+        <v>875</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="4">
-        <v>65867</v>
-      </c>
-      <c r="G5" s="4">
-        <v>876</v>
-      </c>
-      <c r="H5" s="4">
-        <v>857</v>
-      </c>
-      <c r="I5" s="4">
-        <v>5674</v>
-      </c>
-      <c r="J5" s="4">
-        <v>6785</v>
-      </c>
-      <c r="K5" s="4">
-        <v>6754</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="4">
-        <v>674</v>
-      </c>
-      <c r="N5" s="4">
-        <v>5764</v>
-      </c>
-      <c r="O5" s="4">
-        <v>564</v>
-      </c>
-      <c r="P5" s="4">
-        <v>7564</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>4</v>
-      </c>
-      <c r="R5" s="4">
-        <v>7854</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" s="4">
-        <v>865</v>
-      </c>
-      <c r="U5" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="4">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3">
+        <v>8657865</v>
+      </c>
+      <c r="D6" s="3">
+        <v>875</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3">
+        <v>875</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="4">
-        <v>78528173</v>
-      </c>
-      <c r="D6" s="4">
-        <v>78568</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="4">
-        <v>765</v>
-      </c>
-      <c r="H6" s="4">
-        <v>656</v>
-      </c>
-      <c r="I6" s="4">
-        <v>4678</v>
-      </c>
-      <c r="J6" s="4">
-        <v>567</v>
-      </c>
-      <c r="K6" s="4">
-        <v>4567</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="4">
-        <v>456</v>
-      </c>
-      <c r="N6" s="4">
-        <v>4</v>
-      </c>
-      <c r="O6" s="4">
-        <v>576476</v>
-      </c>
-      <c r="P6" s="4">
-        <v>546</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>74</v>
-      </c>
-      <c r="R6" s="4">
-        <v>754</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T6" s="4">
-        <v>564</v>
-      </c>
-      <c r="U6" s="4">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4">
-        <v>576</v>
+        <v>75687</v>
       </c>
       <c r="D7" s="4">
-        <v>7865</v>
+        <v>587</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="4">
-        <v>675</v>
-      </c>
-      <c r="G7" s="4">
-        <v>896</v>
-      </c>
-      <c r="H7" s="4">
-        <v>768</v>
-      </c>
-      <c r="I7" s="4">
-        <v>675</v>
-      </c>
-      <c r="J7" s="4">
-        <v>765</v>
-      </c>
-      <c r="K7" s="4">
-        <v>5</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="4">
-        <v>7</v>
-      </c>
-      <c r="N7" s="4">
-        <v>57</v>
-      </c>
-      <c r="O7" s="4">
-        <v>65</v>
-      </c>
-      <c r="P7" s="4">
-        <v>765</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>67</v>
-      </c>
-      <c r="R7" s="4">
-        <v>576</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T7" s="4">
-        <v>576</v>
-      </c>
-      <c r="U7" s="4">
-        <v>7645</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>26</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" s="4"/>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4">
-        <v>576</v>
+        <v>756924738698</v>
       </c>
       <c r="D8" s="4">
-        <v>7865</v>
+        <v>756785</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="4">
-        <v>675</v>
+        <v>24</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="G8" s="4">
-        <v>675</v>
-      </c>
-      <c r="H8" s="4">
-        <v>76</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="4">
-        <v>4765</v>
-      </c>
-      <c r="K8" s="4">
-        <v>6785</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="4">
-        <v>6785</v>
-      </c>
-      <c r="N8" s="4">
-        <v>687</v>
-      </c>
-      <c r="O8" s="4">
-        <v>86</v>
-      </c>
-      <c r="P8" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>6875</v>
-      </c>
-      <c r="R8" s="4">
-        <v>76</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T8" s="4">
-        <v>578</v>
-      </c>
-      <c r="U8" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>26</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="4"/>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4">
+        <v>756924738698</v>
+      </c>
+      <c r="D9" s="4">
+        <v>756785</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="4">
-        <v>78528173</v>
-      </c>
-      <c r="D9" s="4">
-        <v>78568</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="4">
-        <v>809</v>
-      </c>
-      <c r="H9" s="4">
-        <v>867</v>
-      </c>
-      <c r="I9" s="4">
-        <v>58</v>
-      </c>
-      <c r="J9" s="4">
-        <v>875</v>
-      </c>
-      <c r="K9" s="4">
-        <v>685</v>
-      </c>
-      <c r="L9" s="4" t="s">
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4">
+        <v>756924738698</v>
+      </c>
+      <c r="D10" s="4">
+        <v>756785</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="4">
-        <v>685</v>
-      </c>
-      <c r="N9" s="4">
-        <v>87</v>
-      </c>
-      <c r="O9" s="4">
-        <v>578</v>
-      </c>
-      <c r="P9" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>5</v>
-      </c>
-      <c r="R9" s="4">
-        <v>78</v>
-      </c>
-      <c r="S9" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4">
+        <v>756924738698</v>
+      </c>
+      <c r="D11" s="4">
+        <v>756785</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T9" s="4">
-        <v>785</v>
-      </c>
-      <c r="U9" s="4">
-        <v>5678</v>
-      </c>
+      <c r="F11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4">
+        <v>756924738698</v>
+      </c>
+      <c r="D12" s="4">
+        <v>756785</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4">
+        <v>756924738698</v>
+      </c>
+      <c r="D13" s="4">
+        <v>756785</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V13" s="4"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/Data Prolanis.xlsx
+++ b/Data Prolanis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>PROLANIS</t>
   </si>
@@ -86,61 +86,58 @@
     <t>KETERANGAN</t>
   </si>
   <si>
-    <t>sam'ani</t>
-  </si>
-  <si>
-    <t>0046-07-06</t>
-  </si>
-  <si>
-    <t>sdvbjksd</t>
-  </si>
-  <si>
-    <t>28-05-2023</t>
-  </si>
-  <si>
-    <t>2023-02-28</t>
-  </si>
-  <si>
-    <t>Terkontroller</t>
-  </si>
-  <si>
-    <t>shjbdvahkj</t>
-  </si>
-  <si>
-    <t>0056-07-08</t>
-  </si>
-  <si>
-    <t>2023-05-22</t>
-  </si>
-  <si>
-    <t>2023-05-23</t>
-  </si>
-  <si>
-    <t>jksbndkjl</t>
-  </si>
-  <si>
-    <t>0758-08-05</t>
-  </si>
-  <si>
-    <t>hjkvbshjkd</t>
-  </si>
-  <si>
-    <t>2023-10-12</t>
-  </si>
-  <si>
-    <t>NaN</t>
-  </si>
-  <si>
-    <t>2023-11-21</t>
-  </si>
-  <si>
-    <t>Tidak Terkontroller</t>
-  </si>
-  <si>
-    <t>2023-11-24</t>
-  </si>
-  <si>
-    <t>2023-11-28</t>
+    <t>fdasuihfiu</t>
+  </si>
+  <si>
+    <t>uiyyu</t>
+  </si>
+  <si>
+    <t>hbyu</t>
+  </si>
+  <si>
+    <t>0007-12-31</t>
+  </si>
+  <si>
+    <t>dsfsdf</t>
+  </si>
+  <si>
+    <t>jsdbkjl</t>
+  </si>
+  <si>
+    <t>120/80</t>
+  </si>
+  <si>
+    <t>2023-06-06</t>
+  </si>
+  <si>
+    <t>khjbkjvb</t>
+  </si>
+  <si>
+    <t>jvk</t>
+  </si>
+  <si>
+    <t>kgv</t>
+  </si>
+  <si>
+    <t>ljhkv</t>
+  </si>
+  <si>
+    <t>lugh</t>
+  </si>
+  <si>
+    <t>vcglu</t>
+  </si>
+  <si>
+    <t>ktcgkhuc</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Tidak Terkontrol</t>
+  </si>
+  <si>
+    <t>Diabetes melitus</t>
   </si>
 </sst>
 </file>
@@ -221,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -230,9 +227,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -534,10 +528,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="18.9954" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -642,422 +636,134 @@
       <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3">
-        <v>756924738698</v>
-      </c>
-      <c r="D4" s="3">
-        <v>756785</v>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="G4" s="3">
+        <v>166</v>
+      </c>
+      <c r="H4" s="3">
+        <v>89</v>
+      </c>
+      <c r="I4" s="3">
+        <v>32.3</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="L4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="T4" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3">
+        <v>166</v>
+      </c>
+      <c r="H5" s="3">
+        <v>89</v>
+      </c>
+      <c r="I5" s="3">
+        <v>32.3</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3">
-        <v>8657865</v>
-      </c>
-      <c r="D5" s="3">
-        <v>875</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3">
-        <v>875</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="T5" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3">
-        <v>8657865</v>
-      </c>
-      <c r="D6" s="3">
-        <v>875</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="3">
-        <v>875</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V6" s="3"/>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="4">
-        <v>75687</v>
-      </c>
-      <c r="D7" s="4">
-        <v>587</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" s="4"/>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4">
-        <v>756924738698</v>
-      </c>
-      <c r="D8" s="4">
-        <v>756785</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="4">
-        <v>234</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V8" s="4"/>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4">
-        <v>756924738698</v>
-      </c>
-      <c r="D9" s="4">
-        <v>756785</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V9" s="4"/>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4">
-        <v>756924738698</v>
-      </c>
-      <c r="D10" s="4">
-        <v>756785</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4" t="s">
+      <c r="V5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" s="4"/>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4">
-        <v>756924738698</v>
-      </c>
-      <c r="D11" s="4">
-        <v>756785</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V11" s="4"/>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="4">
-        <v>756924738698</v>
-      </c>
-      <c r="D12" s="4">
-        <v>756785</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V12" s="4"/>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="4">
-        <v>756924738698</v>
-      </c>
-      <c r="D13" s="4">
-        <v>756785</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V13" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
